--- a/data/7_1_roomCapability.xlsx
+++ b/data/7_1_roomCapability.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOTEC_TimeTable\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8D295C-D3A0-4066-8439-477E22F7AC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4C5696-4A2E-4CDC-85C8-A5220FE54F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="room_capacity" sheetId="13" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD50E9F-6026-4801-9D70-29180AF79364}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
